--- a/3-Merge-Excel-Files-Real-Life/summary.xlsx
+++ b/3-Merge-Excel-Files-Real-Life/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\99_Others\Automate_Excel_Workshop\3-Merge-Excel-Files-Real-Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{646603B2-20E5-475C-883C-82D6DAA30437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C85B1E93-71DC-4AD4-8B9E-5F97C3AA26DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="2520" windowWidth="11064" windowHeight="8772" xr2:uid="{ECDE8191-ACDF-4340-AE27-73EFCE122513}"/>
+    <workbookView xWindow="4428" yWindow="2520" windowWidth="11064" windowHeight="8772" xr2:uid="{13248D34-D8FE-49F3-9AAE-97FE721C091E}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0978-4FBF-85FB-820BC0B32E23}"/>
+              <c16:uniqueId val="{00000007-3565-4D0F-992E-691E065842AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -347,11 +347,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="509158224"/>
-        <c:axId val="509157568"/>
+        <c:axId val="528852280"/>
+        <c:axId val="528846048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="509158224"/>
+        <c:axId val="528852280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,7 +361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509157568"/>
+        <c:crossAx val="528846048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -369,7 +369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="509157568"/>
+        <c:axId val="528846048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -380,7 +380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509158224"/>
+        <c:crossAx val="528852280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -428,7 +428,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA52BA9-70ED-4334-AF54-72943424D378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE9B1B0-6DEF-4512-85D1-53A11C3BD4F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,7 +464,7 @@
         <xdr:cNvPr id="4" name="Sales">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5CCA0D-23D6-4585-BF8D-03C81CA14DD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92889BA9-6D7D-4D7C-911C-98BBE4EA7897}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBCBE4B-1F72-43E1-ACA4-FC9EB40B30E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A202D3B-B9F1-4546-8FA2-9065E6002637}">
   <dimension ref="A1:N526"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">

--- a/3-Merge-Excel-Files-Real-Life/summary.xlsx
+++ b/3-Merge-Excel-Files-Real-Life/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\99_Others\Automate_Excel_Workshop\3-Merge-Excel-Files-Real-Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C85B1E93-71DC-4AD4-8B9E-5F97C3AA26DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE6815A-9013-42BD-A9B1-7A8881DE0D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="2520" windowWidth="11064" windowHeight="8772" xr2:uid="{13248D34-D8FE-49F3-9AAE-97FE721C091E}"/>
+    <workbookView xWindow="39060" yWindow="4635" windowWidth="11070" windowHeight="8775" xr2:uid="{595CA447-60A7-407C-B411-2C332C322E93}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3565-4D0F-992E-691E065842AA}"/>
+              <c16:uniqueId val="{00000007-6DE5-4B22-93DB-58794EC3015A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -347,11 +347,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="528852280"/>
-        <c:axId val="528846048"/>
+        <c:axId val="476950000"/>
+        <c:axId val="476945408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="528852280"/>
+        <c:axId val="476950000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,7 +361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528846048"/>
+        <c:crossAx val="476945408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -369,7 +369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="528846048"/>
+        <c:axId val="476945408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -380,7 +380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528852280"/>
+        <c:crossAx val="476950000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -415,20 +415,20 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:colOff>207010</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE9B1B0-6DEF-4512-85D1-53A11C3BD4F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817DCBF3-54CD-4157-B5F2-8AD23D164076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,20 +451,20 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>340360</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:colOff>277495</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Sales">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92889BA9-6D7D-4D7C-911C-98BBE4EA7897}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A10408-BA0A-4F15-BA30-882E7E4299B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A202D3B-B9F1-4546-8FA2-9065E6002637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DD2C33-92A3-47E4-8AEA-A7022607AFA5}">
   <dimension ref="A1:N526"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
@@ -804,17 +804,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/3-Merge-Excel-Files-Real-Life/summary.xlsx
+++ b/3-Merge-Excel-Files-Real-Life/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\99_Others\Automate_Excel_Workshop\3-Merge-Excel-Files-Real-Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE6815A-9013-42BD-A9B1-7A8881DE0D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E98B142-CA0A-4F64-92BC-6F27B11459CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="4635" windowWidth="11070" windowHeight="8775" xr2:uid="{595CA447-60A7-407C-B411-2C332C322E93}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9F1B7660-3CFC-4663-9EFF-E43FDF800E04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6DE5-4B22-93DB-58794EC3015A}"/>
+              <c16:uniqueId val="{00000007-6A50-42CF-A1E3-A9DD4A58661C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -347,11 +347,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="476950000"/>
-        <c:axId val="476945408"/>
+        <c:axId val="597760048"/>
+        <c:axId val="597755456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476950000"/>
+        <c:axId val="597760048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,7 +361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476945408"/>
+        <c:crossAx val="597755456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -369,7 +369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476945408"/>
+        <c:axId val="597755456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -380,7 +380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476950000"/>
+        <c:crossAx val="597760048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -421,14 +421,14 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>207010</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817DCBF3-54CD-4157-B5F2-8AD23D164076}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB9C5C6-7153-49AA-9EC5-C1938ACB26C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,7 +464,7 @@
         <xdr:cNvPr id="4" name="Sales">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A10408-BA0A-4F15-BA30-882E7E4299B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3907209-FC70-4354-B39C-352ADC3C9C3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,10 +795,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DD2C33-92A3-47E4-8AEA-A7022607AFA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F09AB8-ED7F-4913-9834-353B5441C0F2}">
   <dimension ref="A1:N526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
       <selection activeCell="A422" sqref="A422:K526"/>
     </sheetView>
   </sheetViews>

--- a/3-Merge-Excel-Files-Real-Life/summary.xlsx
+++ b/3-Merge-Excel-Files-Real-Life/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\99_Others\Automate_Excel_Workshop\3-Merge-Excel-Files-Real-Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E98B142-CA0A-4F64-92BC-6F27B11459CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B173D64F-4A03-4EF9-B91F-D6D1ED69BBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9F1B7660-3CFC-4663-9EFF-E43FDF800E04}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{95BDFEBF-F994-4788-BC3A-31AF44076A89}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6A50-42CF-A1E3-A9DD4A58661C}"/>
+              <c16:uniqueId val="{00000007-AADF-4957-B5F6-312C36A138DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -347,11 +347,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="597760048"/>
-        <c:axId val="597755456"/>
+        <c:axId val="404039400"/>
+        <c:axId val="404039728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="597760048"/>
+        <c:axId val="404039400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,7 +361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597755456"/>
+        <c:crossAx val="404039728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -369,7 +369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597755456"/>
+        <c:axId val="404039728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -380,7 +380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597760048"/>
+        <c:crossAx val="404039400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -415,20 +415,20 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB9C5C6-7153-49AA-9EC5-C1938ACB26C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F2E9F7-DE5E-4389-91F2-2282941125C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,20 +451,20 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>277495</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Sales">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3907209-FC70-4354-B39C-352ADC3C9C3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F378987E-378C-4EFD-97E6-4DC6BD6911D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,26 +795,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F09AB8-ED7F-4913-9834-353B5441C0F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781D6822-78CC-4E3F-98AC-D5D6604CFDB1}">
   <dimension ref="A1:N526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
       <selection activeCell="A422" sqref="A422:K526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
